--- a/data/01 大断面/鄱阳湖.xlsx
+++ b/data/01 大断面/鄱阳湖.xlsx
@@ -5,28 +5,37 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\计算科\“千吨万人”农村饮水工程监测预警系统建设实施方案\20221202咨询会后修改\1231现场查勘结果\01 大断面测量成果\大断面python画图用数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\计算科\“千吨万人”农村饮水工程监测预警系统建设实施方案\20230624修改稿\02 典型设计水源地\01 大断面\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85963474-4AA1-463B-BF58-39B8133595F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF95A5BD-FC26-441E-9E3C-BC43FDCA3708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31260" yWindow="2610" windowWidth="23460" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="三里乡饮水工程" sheetId="8" r:id="rId1"/>
-    <sheet name="泾口水厂集中供水工程" sheetId="7" r:id="rId2"/>
-    <sheet name="文港镇饮水工程" sheetId="6" r:id="rId3"/>
-    <sheet name="海会自来水厂" sheetId="9" r:id="rId4"/>
+    <sheet name="泾口水厂集中供水工程" sheetId="7" r:id="rId1"/>
+    <sheet name="海会自来水厂" sheetId="9" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>左岸</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -48,20 +57,24 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>历史最高水位</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>取水口高程</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>右岸</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>低枯水标准</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>调查最高水位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低枯水预警水位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取水口高程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>极枯水预警水位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -71,7 +84,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,14 +126,6 @@
       <name val="仿宋_GB2312"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -180,14 +185,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -204,36 +208,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -254,785 +254,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" baseline="0"/>
-              <a:t>三里</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" sz="1800" b="1" i="0" baseline="0"/>
-              <a:t>取水口大断面图</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.0613256377091601E-2"/>
-          <c:y val="0.100761122338566"/>
-          <c:w val="0.92975209700473205"/>
-          <c:h val="0.82400625778872405"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>三里乡饮水工程!$B$2:$B$85</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="84"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.7999999999999972</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20.699999999999989</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>53.199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>72.199999999999989</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>84.699999999999989</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>94.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>98.6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>102.19999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>104.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>107.6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>124.39999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>125.3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>126.19999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>127.39999999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>128.6</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>129.9</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>131.1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>132.29999999999998</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>133.9</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>135.1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>136.6</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>137.9</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>139.4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>140.89999999999998</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>142.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>144.30000000000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>145.5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>147.39999999999998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>149.19999999999999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>152.89999999999998</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>154.69999999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>156.5</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>159.5</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>162.89999999999998</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>164.7</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>166.5</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>168.3</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>170.5</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>172.3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>173.8</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>177.8</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>179.6</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>181.5</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>183.3</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>185.1</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>186.7</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>188.5</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>190.3</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>192.2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>195.5</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>197.39999999999998</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>199.2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>200.7</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>202.5</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>204.39999999999998</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>205.89999999999998</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>207.7</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>209.2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>212.89999999999998</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>214.39999999999998</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>216.3</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>218.2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>221.89999999999998</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>223.1</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>223.7</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>225.1</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>225.7</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>226.1</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>226.1</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>226.7</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>226.7</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>227</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>227.6</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>228.6</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>229.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>三里乡饮水工程!$C$2:$C$85</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="84"/>
-                <c:pt idx="0">
-                  <c:v>13.09</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.82</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.56</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.07</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.06</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.68</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.63</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.52</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.86</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.5299999999999994</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.76</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.24</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.02</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.75</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.49</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.93</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7.44</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7.39</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.24</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7.19</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.04</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.96</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.81</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.63</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6.61</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6.46</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6.38</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6.32</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6.24</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>6.18</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6.13</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6.06</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6.01</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>5.97</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5.92</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>5.87</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>5.84</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>5.82</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>5.83</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>5.74</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>5.56</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>5.28</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>5.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>5.05</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>5.0199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>5.0199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>5.05</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5.03</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>4.9800000000000004</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>4.96</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>4.83</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>4.71</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>4.43</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>4.2300000000000004</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>4.05</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>3.97</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>3.89</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>3.86</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>3.92</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>3.98</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>4.0199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>4.25</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>4.6500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>5.49</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>6.2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>6.49</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>6.95</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>7.42</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>7.52</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>7.75</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>7.66</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>7.93</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>7.86</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>8.57</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>8.86</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>10.11</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>11.49</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9B96-4868-BFDE-14F47A10680F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="171712896"/>
-        <c:axId val="171715200"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="171712896"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="zh-CN" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>起点距（</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>m</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>）</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.39880680827158799"/>
-              <c:y val="0.95135951700201005"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="171715200"/>
-        <c:crossesAt val="-50"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="171715200"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="20"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="wordArtVertRtl" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="zh-CN" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>河底高程（</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>m</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>）</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.36949754153210601"/>
-              <c:y val="0.40138102492454902"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="171712896"/>
-        <c:crossesAt val="-20"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="zh-CN"/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1855,573 +1076,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>文港取水口大断面图</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.35031323113872698"/>
-          <c:y val="1.6175621028307399E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>文港镇饮水工程!$B$2:$B$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.3999999999999986</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14.599999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20.9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>21.4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>21.7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>22.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>23.599999999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24.099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>24.9</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>25.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>26.599999999999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>27.7</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>28.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>29.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>30.4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>31.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>32.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>34.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>35.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>36.700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>39.099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>40.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>41.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>42.7</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>43.8</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>45.099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>46.2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>47.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>48.7</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>49.7</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>50.8</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>52.199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>53.3</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>54.699999999999996</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>55.699999999999996</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>57.1</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>58.199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>59.3</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>60.1</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>60.9</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>61.5</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>61.9</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>62.4</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>63.199999999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>文港镇饮水工程!$C$2:$C$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
-                <c:pt idx="0">
-                  <c:v>24.03</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23.46</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23.37</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22.53</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21.34</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20.239999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20.18</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>19.670000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19.53</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18.95</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>18.78</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>18.64</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18.16</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.940000000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17.79</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17.690000000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17.59</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>17.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>17.32</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>17.16</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>17.28</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>17.309999999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>17.309999999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>17.309999999999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>17.32</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>17.37</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>17.440000000000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>17.43</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>17.47</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>17.53</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>17.489999999999998</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>17.440000000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>17.37</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>17.2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>17.14</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>17.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>17.05</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>17.03</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>17.010000000000002</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>17.03</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>17.05</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>17.11</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>17.309999999999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>17.52</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>18.96</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>19.36</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>19.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>19.87</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>22.7</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>24.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B885-43E8-8E37-8E85E562D390}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="172476288"/>
-        <c:axId val="172490752"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="172476288"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="-20"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="zh-CN" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>起点距（</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>m)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="172490752"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="172490752"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="15"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="wordArtVertRtl" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="zh-CN" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>河底高程（</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>m)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.10841251878012099"/>
-              <c:y val="0.356044523897252"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="172476288"/>
-        <c:crossesAt val="-10"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="zh-CN"/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -3298,47 +1953,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>529259</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>421585</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>144449</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -3376,48 +1990,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>440054</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>24765</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
@@ -3460,7 +2033,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -4345,52 +2918,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="4" width="9" style="2"/>
     <col min="5" max="5" width="14.125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="6" max="10" width="9" style="2"/>
+    <col min="11" max="11" width="11.25" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
-        <v>8</v>
+      <c r="A2" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>13.09</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="16">
-        <v>12.38</v>
+        <v>17.55</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="13">
+        <v>21.91</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -4398,16 +2973,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>9.7999999999999972</v>
+        <v>12.899999999999999</v>
       </c>
       <c r="C3" s="2">
-        <v>12.82</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="16">
-        <v>8.56</v>
+        <v>17.79</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="14">
+        <v>8.83</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -4415,16 +2990,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>20.699999999999989</v>
+        <v>14.199999999999996</v>
       </c>
       <c r="C4" s="2">
-        <v>12.56</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="18">
-        <v>10.29</v>
+        <v>17.579999999999998</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="14">
+        <v>9.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -4432,10 +3007,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>53.199999999999996</v>
+        <v>16.699999999999996</v>
       </c>
       <c r="C5" s="2">
-        <v>12.07</v>
+        <v>16.53</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="15">
+        <v>6.33</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -4443,21 +3024,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>72.199999999999989</v>
+        <v>20.9</v>
       </c>
       <c r="C6" s="2">
-        <v>12.06</v>
-      </c>
+        <v>15.46</v>
+      </c>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>84.699999999999989</v>
+        <v>25.799999999999997</v>
       </c>
       <c r="C7" s="2">
-        <v>11.68</v>
+        <v>13.81</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -4465,10 +3047,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>94.5</v>
+        <v>31.699999999999996</v>
       </c>
       <c r="C8" s="2">
-        <v>11.63</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -4476,10 +3058,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>98.6</v>
+        <v>36.199999999999996</v>
       </c>
       <c r="C9" s="2">
-        <v>12.52</v>
+        <v>10.119999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -4487,10 +3069,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>102.19999999999999</v>
+        <v>41.599999999999994</v>
       </c>
       <c r="C10" s="2">
-        <v>11.86</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -4498,10 +3080,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>104.8</v>
+        <v>48.8</v>
       </c>
       <c r="C11" s="2">
-        <v>10.8</v>
+        <v>8.93</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -4509,10 +3091,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>107.6</v>
+        <v>64.8</v>
       </c>
       <c r="C12" s="2">
-        <v>10.11</v>
+        <v>7.94</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -4520,10 +3102,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>109</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="C13" s="2">
-        <v>9.5299999999999994</v>
+        <v>8.0500000000000007</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -4531,10 +3113,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>124.39999999999999</v>
+        <v>65</v>
       </c>
       <c r="C14" s="2">
-        <v>8.76</v>
+        <v>8.02</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -4542,10 +3124,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>125.3</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="C15" s="2">
-        <v>8.24</v>
+        <v>7.93</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -4553,10 +3135,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>126.19999999999999</v>
+        <v>66.8</v>
       </c>
       <c r="C16" s="2">
-        <v>7.02</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -4564,10 +3146,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>127.39999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="C17" s="2">
-        <v>6.75</v>
+        <v>7.88</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -4575,10 +3157,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>128.6</v>
+        <v>68.8</v>
       </c>
       <c r="C18" s="2">
-        <v>6.49</v>
+        <v>7.88</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -4586,10 +3168,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>129.9</v>
+        <v>70</v>
       </c>
       <c r="C19" s="2">
-        <v>6.93</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -4597,10 +3179,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>131.1</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="C20" s="2">
-        <v>7.44</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -4608,10 +3190,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>132.29999999999998</v>
+        <v>72.199999999999989</v>
       </c>
       <c r="C21" s="2">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -4619,10 +3201,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>133.9</v>
+        <v>73.199999999999989</v>
       </c>
       <c r="C22" s="2">
-        <v>7.39</v>
+        <v>7.97</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -4630,10 +3212,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>135.1</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="C23" s="2">
-        <v>7.24</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -4641,10 +3223,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>136.6</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="C24" s="2">
-        <v>7.19</v>
+        <v>7.96</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -4652,10 +3234,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>137.9</v>
+        <v>76.3</v>
       </c>
       <c r="C25" s="2">
-        <v>7.04</v>
+        <v>7.96</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -4663,10 +3245,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>139.4</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="C26" s="2">
-        <v>6.96</v>
+        <v>7.85</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -4674,10 +3256,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>140.89999999999998</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="C27" s="2">
-        <v>6.81</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -4685,10 +3267,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>142.80000000000001</v>
+        <v>79.699999999999989</v>
       </c>
       <c r="C28" s="2">
-        <v>6.63</v>
+        <v>7.82</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -4696,10 +3278,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>144.30000000000001</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="C29" s="2">
-        <v>6.61</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -4707,10 +3289,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>145.5</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="C30" s="2">
-        <v>6.46</v>
+        <v>7.77</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -4718,10 +3300,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>147.39999999999998</v>
+        <v>83.199999999999989</v>
       </c>
       <c r="C31" s="2">
-        <v>6.38</v>
+        <v>7.74</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -4729,10 +3311,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="2">
-        <v>149.19999999999999</v>
+        <v>84.5</v>
       </c>
       <c r="C32" s="2">
-        <v>6.32</v>
+        <v>7.72</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
@@ -4740,10 +3322,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>151</v>
+        <v>85.8</v>
       </c>
       <c r="C33" s="2">
-        <v>6.24</v>
+        <v>7.73</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.15">
@@ -4751,10 +3333,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="2">
-        <v>152.89999999999998</v>
+        <v>87.199999999999989</v>
       </c>
       <c r="C34" s="2">
-        <v>6.18</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
@@ -4762,88 +3344,74 @@
         <v>33</v>
       </c>
       <c r="B35" s="2">
-        <v>154.69999999999999</v>
+        <v>88.699999999999989</v>
       </c>
       <c r="C35" s="2">
-        <v>6.13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>34</v>
       </c>
       <c r="B36" s="2">
-        <v>156.5</v>
+        <v>90.3</v>
       </c>
       <c r="C36" s="2">
-        <v>6.1</v>
-      </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
+        <v>7.67</v>
+      </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>35</v>
       </c>
       <c r="B37" s="2">
-        <v>158</v>
+        <v>91.8</v>
       </c>
       <c r="C37" s="2">
-        <v>6.06</v>
-      </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
+        <v>7.76</v>
+      </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>36</v>
       </c>
       <c r="B38" s="2">
-        <v>159.5</v>
+        <v>93.1</v>
       </c>
       <c r="C38" s="2">
-        <v>6.01</v>
-      </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+        <v>7.74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>37</v>
       </c>
       <c r="B39" s="2">
-        <v>161</v>
+        <v>94.6</v>
       </c>
       <c r="C39" s="2">
-        <v>5.97</v>
-      </c>
+        <v>7.81</v>
+      </c>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>38</v>
       </c>
       <c r="B40" s="2">
-        <v>162.89999999999998</v>
+        <v>96.199999999999989</v>
       </c>
       <c r="C40" s="2">
-        <v>5.92</v>
+        <v>7.66</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
@@ -4851,10 +3419,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="2">
-        <v>164.7</v>
+        <v>97.4</v>
       </c>
       <c r="C41" s="2">
-        <v>5.87</v>
+        <v>7.55</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
@@ -4862,10 +3430,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>166.5</v>
+        <v>98.699999999999989</v>
       </c>
       <c r="C42" s="2">
-        <v>5.84</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.15">
@@ -4873,10 +3441,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="2">
-        <v>168.3</v>
+        <v>100</v>
       </c>
       <c r="C43" s="2">
-        <v>5.82</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.15">
@@ -4884,10 +3452,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="2">
-        <v>170.5</v>
+        <v>101.6</v>
       </c>
       <c r="C44" s="2">
-        <v>5.83</v>
+        <v>7.42</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.15">
@@ -4895,10 +3463,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="2">
-        <v>172.3</v>
+        <v>103.4</v>
       </c>
       <c r="C45" s="2">
-        <v>5.88</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
@@ -4906,10 +3474,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="2">
-        <v>173.8</v>
+        <v>104.9</v>
       </c>
       <c r="C46" s="2">
-        <v>5.74</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
@@ -4917,10 +3485,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="2">
-        <v>176</v>
+        <v>106.4</v>
       </c>
       <c r="C47" s="2">
-        <v>5.56</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
@@ -4928,10 +3496,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="2">
-        <v>177.8</v>
+        <v>107.69999999999999</v>
       </c>
       <c r="C48" s="2">
-        <v>5.28</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
@@ -4939,10 +3507,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="2">
-        <v>179.6</v>
+        <v>109.19999999999999</v>
       </c>
       <c r="C49" s="2">
-        <v>5.0999999999999996</v>
+        <v>7.08</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
@@ -4950,10 +3518,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="2">
-        <v>181.5</v>
+        <v>111</v>
       </c>
       <c r="C50" s="2">
-        <v>5.05</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
@@ -4961,10 +3529,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="2">
-        <v>183.3</v>
+        <v>112.5</v>
       </c>
       <c r="C51" s="2">
-        <v>5.0199999999999996</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -4972,10 +3540,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <v>185.1</v>
+        <v>114.3</v>
       </c>
       <c r="C52" s="2">
-        <v>5.0199999999999996</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -4983,10 +3551,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="2">
-        <v>186.7</v>
+        <v>115.8</v>
       </c>
       <c r="C53" s="2">
-        <v>5.05</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -4994,10 +3562,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="2">
-        <v>188.5</v>
+        <v>117.3</v>
       </c>
       <c r="C54" s="2">
-        <v>5.03</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
@@ -5005,10 +3573,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="2">
-        <v>190.3</v>
+        <v>118.8</v>
       </c>
       <c r="C55" s="2">
-        <v>5</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
@@ -5016,10 +3584,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="2">
-        <v>192.2</v>
+        <v>120.5</v>
       </c>
       <c r="C56" s="2">
-        <v>5</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
@@ -5027,10 +3595,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="2">
-        <v>194</v>
+        <v>121.7</v>
       </c>
       <c r="C57" s="2">
-        <v>4.9800000000000004</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
@@ -5038,10 +3606,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="2">
-        <v>195.5</v>
+        <v>123.2</v>
       </c>
       <c r="C58" s="2">
-        <v>4.96</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
@@ -5049,10 +3617,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="2">
-        <v>197.39999999999998</v>
+        <v>124.7</v>
       </c>
       <c r="C59" s="2">
-        <v>4.83</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
@@ -5060,10 +3628,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="2">
-        <v>199.2</v>
+        <v>126.39999999999999</v>
       </c>
       <c r="C60" s="2">
-        <v>4.71</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
@@ -5071,10 +3639,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="2">
-        <v>200.7</v>
+        <v>127.89999999999999</v>
       </c>
       <c r="C61" s="2">
-        <v>4.43</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
@@ -5082,10 +3650,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="2">
-        <v>202.5</v>
+        <v>129.39999999999998</v>
       </c>
       <c r="C62" s="2">
-        <v>4.2300000000000004</v>
+        <v>6.27</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -5093,10 +3661,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="2">
-        <v>204.39999999999998</v>
+        <v>130.69999999999999</v>
       </c>
       <c r="C63" s="2">
-        <v>4.05</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -5104,10 +3672,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="2">
-        <v>205.89999999999998</v>
+        <v>132.19999999999999</v>
       </c>
       <c r="C64" s="2">
-        <v>3.97</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -5115,10 +3683,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="2">
-        <v>207.7</v>
+        <v>133.5</v>
       </c>
       <c r="C65" s="2">
-        <v>3.89</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -5126,10 +3694,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="2">
-        <v>209.2</v>
+        <v>134.69999999999999</v>
       </c>
       <c r="C66" s="2">
-        <v>3.86</v>
+        <v>6.24</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -5137,10 +3705,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="2">
-        <v>211</v>
+        <v>136.39999999999998</v>
       </c>
       <c r="C67" s="2">
-        <v>3.92</v>
+        <v>6.28</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -5148,10 +3716,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <v>212.89999999999998</v>
+        <v>138</v>
       </c>
       <c r="C68" s="2">
-        <v>3.98</v>
+        <v>6.31</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -5159,10 +3727,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="2">
-        <v>214.39999999999998</v>
+        <v>139.5</v>
       </c>
       <c r="C69" s="2">
-        <v>4.0199999999999996</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -5170,10 +3738,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="2">
-        <v>216.3</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="C70" s="2">
-        <v>4.25</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -5181,10 +3749,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="2">
-        <v>218.2</v>
+        <v>142.39999999999998</v>
       </c>
       <c r="C71" s="2">
-        <v>4.6500000000000004</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -5192,10 +3760,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="2">
-        <v>220</v>
+        <v>144</v>
       </c>
       <c r="C72" s="2">
-        <v>5.49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -5203,10 +3771,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="2">
-        <v>221.89999999999998</v>
+        <v>145.5</v>
       </c>
       <c r="C73" s="2">
-        <v>6.2</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -5214,10 +3782,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="2">
-        <v>223.1</v>
+        <v>147</v>
       </c>
       <c r="C74" s="2">
-        <v>6.49</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -5225,10 +3793,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="2">
-        <v>223.7</v>
+        <v>148.5</v>
       </c>
       <c r="C75" s="2">
-        <v>6.95</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -5236,10 +3804,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="2">
-        <v>225.1</v>
+        <v>149.80000000000001</v>
       </c>
       <c r="C76" s="2">
-        <v>7.42</v>
+        <v>6.26</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -5247,10 +3815,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="2">
-        <v>225.7</v>
+        <v>151.1</v>
       </c>
       <c r="C77" s="2">
-        <v>7.52</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -5258,10 +3826,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="2">
-        <v>226.1</v>
+        <v>153.39999999999998</v>
       </c>
       <c r="C78" s="2">
-        <v>7.75</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -5269,10 +3837,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="2">
-        <v>226.1</v>
+        <v>154.89999999999998</v>
       </c>
       <c r="C79" s="2">
-        <v>7.66</v>
+        <v>5.79</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -5280,10 +3848,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="2">
-        <v>226.7</v>
+        <v>156.39999999999998</v>
       </c>
       <c r="C80" s="2">
-        <v>7.93</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -5291,10 +3859,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="2">
-        <v>226.7</v>
+        <v>174.2</v>
       </c>
       <c r="C81" s="2">
-        <v>7.86</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -5302,10 +3870,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="2">
-        <v>227</v>
+        <v>176.39999999999998</v>
       </c>
       <c r="C82" s="2">
-        <v>8.57</v>
+        <v>5.77</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
@@ -5313,10 +3881,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="2">
-        <v>227.6</v>
+        <v>179.10000000000002</v>
       </c>
       <c r="C83" s="2">
-        <v>8.86</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
@@ -5324,1117 +3892,119 @@
         <v>82</v>
       </c>
       <c r="B84" s="2">
-        <v>228.6</v>
+        <v>181.39999999999998</v>
       </c>
       <c r="C84" s="2">
-        <v>10.11</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="2">
+        <v>83</v>
+      </c>
+      <c r="B85" s="2">
+        <v>183.60000000000002</v>
+      </c>
+      <c r="C85" s="2">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A86" s="2">
+        <v>84</v>
+      </c>
+      <c r="B86" s="2">
+        <v>186</v>
+      </c>
+      <c r="C86" s="2">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A87" s="2">
+        <v>85</v>
+      </c>
+      <c r="B87" s="2">
+        <v>187.7</v>
+      </c>
+      <c r="C87" s="2">
+        <v>6.36</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A88" s="2">
+        <v>86</v>
+      </c>
+      <c r="B88" s="2">
+        <v>190.10000000000002</v>
+      </c>
+      <c r="C88" s="2">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A89" s="2">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2">
+        <v>197.39999999999998</v>
+      </c>
+      <c r="C89" s="2">
+        <v>6.14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A90" s="2">
+        <v>88</v>
+      </c>
+      <c r="B90" s="2">
+        <v>199.7</v>
+      </c>
+      <c r="C90" s="2">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A91" s="2">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2">
+        <v>202.10000000000002</v>
+      </c>
+      <c r="C91" s="2">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A92" s="2">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2">
+        <v>204.7</v>
+      </c>
+      <c r="C92" s="2">
+        <v>5.92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A93" s="2">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2">
+        <v>206.89999999999998</v>
+      </c>
+      <c r="C93" s="2">
+        <v>5.93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A94" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="2">
-        <v>229.6</v>
-      </c>
-      <c r="C85" s="2">
-        <v>11.49</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E36:M36"/>
-    <mergeCell ref="E37:K37"/>
-    <mergeCell ref="E38:K38"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M94"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="14.125" style="3" customWidth="1"/>
-    <col min="6" max="10" width="9" style="3"/>
-    <col min="11" max="11" width="11.25" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>17.55</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="15">
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>12.899999999999999</v>
-      </c>
-      <c r="C3" s="3">
-        <v>17.79</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="15">
-        <v>8.33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>14.199999999999996</v>
-      </c>
-      <c r="C4" s="3">
-        <v>17.579999999999998</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="11">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>16.699999999999996</v>
-      </c>
-      <c r="C5" s="3">
-        <v>16.53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <v>20.9</v>
-      </c>
-      <c r="C6" s="3">
-        <v>15.46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>25.799999999999997</v>
-      </c>
-      <c r="C7" s="3">
-        <v>13.81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>31.699999999999996</v>
-      </c>
-      <c r="C8" s="3">
-        <v>11.71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <v>36.199999999999996</v>
-      </c>
-      <c r="C9" s="3">
-        <v>10.119999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
-        <v>41.599999999999994</v>
-      </c>
-      <c r="C10" s="3">
-        <v>9.68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3">
-        <v>48.8</v>
-      </c>
-      <c r="C11" s="3">
-        <v>8.93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3">
-        <v>64.8</v>
-      </c>
-      <c r="C12" s="3">
-        <v>7.94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3">
-        <v>64.900000000000006</v>
-      </c>
-      <c r="C13" s="3">
-        <v>8.0500000000000007</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3">
-        <v>65</v>
-      </c>
-      <c r="C14" s="3">
-        <v>8.02</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3">
-        <v>65.900000000000006</v>
-      </c>
-      <c r="C15" s="3">
-        <v>7.93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3">
-        <v>66.8</v>
-      </c>
-      <c r="C16" s="3">
-        <v>7.99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3">
-        <v>67.8</v>
-      </c>
-      <c r="C17" s="3">
-        <v>7.88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3">
-        <v>68.8</v>
-      </c>
-      <c r="C18" s="3">
-        <v>7.88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3">
-        <v>70</v>
-      </c>
-      <c r="C19" s="3">
-        <v>7.87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3">
-        <v>70.900000000000006</v>
-      </c>
-      <c r="C20" s="3">
-        <v>7.84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3">
-        <v>72.199999999999989</v>
-      </c>
-      <c r="C21" s="3">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3">
-        <v>73.199999999999989</v>
-      </c>
-      <c r="C22" s="3">
-        <v>7.97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3">
-        <v>74.400000000000006</v>
-      </c>
-      <c r="C23" s="3">
-        <v>7.89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>22</v>
-      </c>
-      <c r="B24" s="3">
-        <v>75.400000000000006</v>
-      </c>
-      <c r="C24" s="3">
-        <v>7.96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>23</v>
-      </c>
-      <c r="B25" s="3">
-        <v>76.3</v>
-      </c>
-      <c r="C25" s="3">
-        <v>7.96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>24</v>
-      </c>
-      <c r="B26" s="3">
-        <v>77.599999999999994</v>
-      </c>
-      <c r="C26" s="3">
-        <v>7.85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>25</v>
-      </c>
-      <c r="B27" s="3">
-        <v>78.599999999999994</v>
-      </c>
-      <c r="C27" s="3">
-        <v>7.84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>26</v>
-      </c>
-      <c r="B28" s="3">
-        <v>79.699999999999989</v>
-      </c>
-      <c r="C28" s="3">
-        <v>7.82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>27</v>
-      </c>
-      <c r="B29" s="3">
-        <v>80.900000000000006</v>
-      </c>
-      <c r="C29" s="3">
-        <v>7.87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
-        <v>28</v>
-      </c>
-      <c r="B30" s="3">
-        <v>81.900000000000006</v>
-      </c>
-      <c r="C30" s="3">
-        <v>7.77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
-        <v>29</v>
-      </c>
-      <c r="B31" s="3">
-        <v>83.199999999999989</v>
-      </c>
-      <c r="C31" s="3">
-        <v>7.74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
-        <v>30</v>
-      </c>
-      <c r="B32" s="3">
-        <v>84.5</v>
-      </c>
-      <c r="C32" s="3">
-        <v>7.72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
-        <v>31</v>
-      </c>
-      <c r="B33" s="3">
-        <v>85.8</v>
-      </c>
-      <c r="C33" s="3">
-        <v>7.73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
-        <v>32</v>
-      </c>
-      <c r="B34" s="3">
-        <v>87.199999999999989</v>
-      </c>
-      <c r="C34" s="3">
-        <v>7.69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A35" s="3">
-        <v>33</v>
-      </c>
-      <c r="B35" s="3">
-        <v>88.699999999999989</v>
-      </c>
-      <c r="C35" s="3">
-        <v>7.67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A36" s="3">
-        <v>34</v>
-      </c>
-      <c r="B36" s="3">
-        <v>90.3</v>
-      </c>
-      <c r="C36" s="3">
-        <v>7.67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A37" s="3">
-        <v>35</v>
-      </c>
-      <c r="B37" s="3">
-        <v>91.8</v>
-      </c>
-      <c r="C37" s="3">
-        <v>7.76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A38" s="3">
-        <v>36</v>
-      </c>
-      <c r="B38" s="3">
-        <v>93.1</v>
-      </c>
-      <c r="C38" s="3">
-        <v>7.74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>37</v>
-      </c>
-      <c r="B39" s="3">
-        <v>94.6</v>
-      </c>
-      <c r="C39" s="3">
-        <v>7.81</v>
-      </c>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A40" s="3">
-        <v>38</v>
-      </c>
-      <c r="B40" s="3">
-        <v>96.199999999999989</v>
-      </c>
-      <c r="C40" s="3">
-        <v>7.66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A41" s="3">
-        <v>39</v>
-      </c>
-      <c r="B41" s="3">
-        <v>97.4</v>
-      </c>
-      <c r="C41" s="3">
-        <v>7.55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A42" s="3">
-        <v>40</v>
-      </c>
-      <c r="B42" s="3">
-        <v>98.699999999999989</v>
-      </c>
-      <c r="C42" s="3">
-        <v>7.56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A43" s="3">
-        <v>41</v>
-      </c>
-      <c r="B43" s="3">
-        <v>100</v>
-      </c>
-      <c r="C43" s="3">
-        <v>7.47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A44" s="3">
-        <v>42</v>
-      </c>
-      <c r="B44" s="3">
-        <v>101.6</v>
-      </c>
-      <c r="C44" s="3">
-        <v>7.42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A45" s="3">
-        <v>43</v>
-      </c>
-      <c r="B45" s="3">
-        <v>103.4</v>
-      </c>
-      <c r="C45" s="3">
-        <v>7.32</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A46" s="3">
-        <v>44</v>
-      </c>
-      <c r="B46" s="3">
-        <v>104.9</v>
-      </c>
-      <c r="C46" s="3">
-        <v>7.23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A47" s="3">
-        <v>45</v>
-      </c>
-      <c r="B47" s="3">
-        <v>106.4</v>
-      </c>
-      <c r="C47" s="3">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A48" s="3">
-        <v>46</v>
-      </c>
-      <c r="B48" s="3">
-        <v>107.69999999999999</v>
-      </c>
-      <c r="C48" s="3">
-        <v>7.16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A49" s="3">
-        <v>47</v>
-      </c>
-      <c r="B49" s="3">
-        <v>109.19999999999999</v>
-      </c>
-      <c r="C49" s="3">
-        <v>7.08</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A50" s="3">
-        <v>48</v>
-      </c>
-      <c r="B50" s="3">
-        <v>111</v>
-      </c>
-      <c r="C50" s="3">
-        <v>6.99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A51" s="3">
-        <v>49</v>
-      </c>
-      <c r="B51" s="3">
-        <v>112.5</v>
-      </c>
-      <c r="C51" s="3">
-        <v>6.95</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A52" s="3">
-        <v>50</v>
-      </c>
-      <c r="B52" s="3">
-        <v>114.3</v>
-      </c>
-      <c r="C52" s="3">
-        <v>6.93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A53" s="3">
-        <v>51</v>
-      </c>
-      <c r="B53" s="3">
-        <v>115.8</v>
-      </c>
-      <c r="C53" s="3">
-        <v>6.89</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A54" s="3">
-        <v>52</v>
-      </c>
-      <c r="B54" s="3">
-        <v>117.3</v>
-      </c>
-      <c r="C54" s="3">
-        <v>6.89</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A55" s="3">
-        <v>53</v>
-      </c>
-      <c r="B55" s="3">
-        <v>118.8</v>
-      </c>
-      <c r="C55" s="3">
-        <v>6.88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A56" s="3">
-        <v>54</v>
-      </c>
-      <c r="B56" s="3">
-        <v>120.5</v>
-      </c>
-      <c r="C56" s="3">
-        <v>6.87</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A57" s="3">
-        <v>55</v>
-      </c>
-      <c r="B57" s="3">
-        <v>121.7</v>
-      </c>
-      <c r="C57" s="3">
-        <v>6.79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A58" s="3">
-        <v>56</v>
-      </c>
-      <c r="B58" s="3">
-        <v>123.2</v>
-      </c>
-      <c r="C58" s="3">
-        <v>6.76</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A59" s="3">
-        <v>57</v>
-      </c>
-      <c r="B59" s="3">
-        <v>124.7</v>
-      </c>
-      <c r="C59" s="3">
-        <v>6.74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A60" s="3">
-        <v>58</v>
-      </c>
-      <c r="B60" s="3">
-        <v>126.39999999999999</v>
-      </c>
-      <c r="C60" s="3">
-        <v>6.69</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A61" s="3">
-        <v>59</v>
-      </c>
-      <c r="B61" s="3">
-        <v>127.89999999999999</v>
-      </c>
-      <c r="C61" s="3">
-        <v>6.51</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A62" s="3">
-        <v>60</v>
-      </c>
-      <c r="B62" s="3">
-        <v>129.39999999999998</v>
-      </c>
-      <c r="C62" s="3">
-        <v>6.27</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A63" s="3">
-        <v>61</v>
-      </c>
-      <c r="B63" s="3">
-        <v>130.69999999999999</v>
-      </c>
-      <c r="C63" s="3">
-        <v>6.23</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A64" s="3">
-        <v>62</v>
-      </c>
-      <c r="B64" s="3">
-        <v>132.19999999999999</v>
-      </c>
-      <c r="C64" s="3">
-        <v>6.23</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A65" s="3">
-        <v>63</v>
-      </c>
-      <c r="B65" s="3">
-        <v>133.5</v>
-      </c>
-      <c r="C65" s="3">
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A66" s="3">
-        <v>64</v>
-      </c>
-      <c r="B66" s="3">
-        <v>134.69999999999999</v>
-      </c>
-      <c r="C66" s="3">
-        <v>6.24</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A67" s="3">
-        <v>65</v>
-      </c>
-      <c r="B67" s="3">
-        <v>136.39999999999998</v>
-      </c>
-      <c r="C67" s="3">
-        <v>6.28</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68" s="3">
-        <v>66</v>
-      </c>
-      <c r="B68" s="3">
-        <v>138</v>
-      </c>
-      <c r="C68" s="3">
-        <v>6.31</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A69" s="3">
-        <v>67</v>
-      </c>
-      <c r="B69" s="3">
-        <v>139.5</v>
-      </c>
-      <c r="C69" s="3">
-        <v>6.49</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A70" s="3">
-        <v>68</v>
-      </c>
-      <c r="B70" s="3">
-        <v>140.69999999999999</v>
-      </c>
-      <c r="C70" s="3">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A71" s="3">
-        <v>69</v>
-      </c>
-      <c r="B71" s="3">
-        <v>142.39999999999998</v>
-      </c>
-      <c r="C71" s="3">
-        <v>6.91</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A72" s="3">
-        <v>70</v>
-      </c>
-      <c r="B72" s="3">
-        <v>144</v>
-      </c>
-      <c r="C72" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A73" s="3">
-        <v>71</v>
-      </c>
-      <c r="B73" s="3">
-        <v>145.5</v>
-      </c>
-      <c r="C73" s="3">
-        <v>6.81</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A74" s="3">
-        <v>72</v>
-      </c>
-      <c r="B74" s="3">
-        <v>147</v>
-      </c>
-      <c r="C74" s="3">
-        <v>6.69</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75" s="3">
-        <v>73</v>
-      </c>
-      <c r="B75" s="3">
-        <v>148.5</v>
-      </c>
-      <c r="C75" s="3">
-        <v>6.49</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A76" s="3">
-        <v>74</v>
-      </c>
-      <c r="B76" s="3">
-        <v>149.80000000000001</v>
-      </c>
-      <c r="C76" s="3">
-        <v>6.26</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A77" s="3">
-        <v>75</v>
-      </c>
-      <c r="B77" s="3">
-        <v>151.1</v>
-      </c>
-      <c r="C77" s="3">
-        <v>6.06</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A78" s="3">
-        <v>76</v>
-      </c>
-      <c r="B78" s="3">
-        <v>153.39999999999998</v>
-      </c>
-      <c r="C78" s="3">
-        <v>5.93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A79" s="3">
-        <v>77</v>
-      </c>
-      <c r="B79" s="3">
-        <v>154.89999999999998</v>
-      </c>
-      <c r="C79" s="3">
-        <v>5.79</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A80" s="3">
-        <v>78</v>
-      </c>
-      <c r="B80" s="3">
-        <v>156.39999999999998</v>
-      </c>
-      <c r="C80" s="3">
-        <v>5.74</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A81" s="3">
-        <v>79</v>
-      </c>
-      <c r="B81" s="3">
-        <v>174.2</v>
-      </c>
-      <c r="C81" s="3">
-        <v>5.66</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" s="3">
-        <v>80</v>
-      </c>
-      <c r="B82" s="3">
-        <v>176.39999999999998</v>
-      </c>
-      <c r="C82" s="3">
-        <v>5.77</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A83" s="3">
-        <v>81</v>
-      </c>
-      <c r="B83" s="3">
-        <v>179.10000000000002</v>
-      </c>
-      <c r="C83" s="3">
-        <v>5.85</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A84" s="3">
-        <v>82</v>
-      </c>
-      <c r="B84" s="3">
-        <v>181.39999999999998</v>
-      </c>
-      <c r="C84" s="3">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A85" s="3">
-        <v>83</v>
-      </c>
-      <c r="B85" s="3">
-        <v>183.60000000000002</v>
-      </c>
-      <c r="C85" s="3">
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A86" s="3">
-        <v>84</v>
-      </c>
-      <c r="B86" s="3">
-        <v>186</v>
-      </c>
-      <c r="C86" s="3">
-        <v>6.33</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A87" s="3">
-        <v>85</v>
-      </c>
-      <c r="B87" s="3">
-        <v>187.7</v>
-      </c>
-      <c r="C87" s="3">
-        <v>6.36</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A88" s="3">
-        <v>86</v>
-      </c>
-      <c r="B88" s="3">
-        <v>190.10000000000002</v>
-      </c>
-      <c r="C88" s="3">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A89" s="3">
-        <v>87</v>
-      </c>
-      <c r="B89" s="3">
-        <v>197.39999999999998</v>
-      </c>
-      <c r="C89" s="3">
-        <v>6.14</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A90" s="3">
-        <v>88</v>
-      </c>
-      <c r="B90" s="3">
-        <v>199.7</v>
-      </c>
-      <c r="C90" s="3">
-        <v>5.95</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A91" s="3">
-        <v>89</v>
-      </c>
-      <c r="B91" s="3">
-        <v>202.10000000000002</v>
-      </c>
-      <c r="C91" s="3">
-        <v>5.82</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A92" s="3">
-        <v>90</v>
-      </c>
-      <c r="B92" s="3">
-        <v>204.7</v>
-      </c>
-      <c r="C92" s="3">
-        <v>5.92</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A93" s="3">
-        <v>91</v>
-      </c>
-      <c r="B93" s="3">
-        <v>206.89999999999998</v>
-      </c>
-      <c r="C93" s="3">
-        <v>5.93</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A94" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B94" s="3">
+      <c r="B94" s="2">
         <v>218.2</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="2">
         <v>5.71</v>
       </c>
     </row>
@@ -6448,655 +4018,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N53"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="14.125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>24.03</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="15">
-        <v>22.35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>4.3999999999999986</v>
-      </c>
-      <c r="C3" s="2">
-        <v>23.46</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="15">
-        <v>17.559999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>10.499999999999998</v>
-      </c>
-      <c r="C4" s="2">
-        <v>23.37</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="14">
-        <v>17.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>14.599999999999998</v>
-      </c>
-      <c r="C5" s="2">
-        <v>22.53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>16.2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>21.34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="C7" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2">
-        <v>20.239999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>20.299999999999997</v>
-      </c>
-      <c r="C9" s="2">
-        <v>20.18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>20.9</v>
-      </c>
-      <c r="C10" s="2">
-        <v>19.670000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>21.4</v>
-      </c>
-      <c r="C11" s="2">
-        <v>19.53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <v>21.7</v>
-      </c>
-      <c r="C12" s="2">
-        <v>18.95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2">
-        <v>22.2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>18.78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2">
-        <v>22.799999999999997</v>
-      </c>
-      <c r="C14" s="2">
-        <v>18.64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2">
-        <v>23.599999999999998</v>
-      </c>
-      <c r="C15" s="2">
-        <v>18.16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="2">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2">
-        <v>24.099999999999998</v>
-      </c>
-      <c r="C16" s="2">
-        <v>17.940000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="2">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2">
-        <v>24.9</v>
-      </c>
-      <c r="C17" s="2">
-        <v>17.79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="2">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2">
-        <v>25.799999999999997</v>
-      </c>
-      <c r="C18" s="2">
-        <v>17.690000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="2">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2">
-        <v>26.599999999999998</v>
-      </c>
-      <c r="C19" s="2">
-        <v>17.59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="2">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2">
-        <v>27.7</v>
-      </c>
-      <c r="C20" s="2">
-        <v>17.399999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="2">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2">
-        <v>28.5</v>
-      </c>
-      <c r="C21" s="2">
-        <v>17.32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="2">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2">
-        <v>29.299999999999997</v>
-      </c>
-      <c r="C22" s="2">
-        <v>17.16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="2">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2">
-        <v>30.4</v>
-      </c>
-      <c r="C23" s="2">
-        <v>17.28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="2">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2">
-        <v>31.5</v>
-      </c>
-      <c r="C24" s="2">
-        <v>17.309999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="2">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="C25" s="2">
-        <v>17.309999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="2">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="C26" s="2">
-        <v>17.309999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="2">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2">
-        <v>35.599999999999994</v>
-      </c>
-      <c r="C27" s="2">
-        <v>17.32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="2">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="C28" s="2">
-        <v>17.37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="2">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2">
-        <v>38</v>
-      </c>
-      <c r="C29" s="2">
-        <v>17.440000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="2">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2">
-        <v>39.099999999999994</v>
-      </c>
-      <c r="C30" s="2">
-        <v>17.43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="2">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="C31" s="2">
-        <v>17.47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="2">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2">
-        <v>41.599999999999994</v>
-      </c>
-      <c r="C32" s="2">
-        <v>17.53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A33" s="2">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2">
-        <v>42.7</v>
-      </c>
-      <c r="C33" s="2">
-        <v>17.489999999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A34" s="2">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2">
-        <v>43.8</v>
-      </c>
-      <c r="C34" s="2">
-        <v>17.440000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A35" s="2">
-        <v>33</v>
-      </c>
-      <c r="B35" s="2">
-        <v>45.099999999999994</v>
-      </c>
-      <c r="C35" s="2">
-        <v>17.37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A36" s="2">
-        <v>34</v>
-      </c>
-      <c r="B36" s="2">
-        <v>46.2</v>
-      </c>
-      <c r="C36" s="2">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A37" s="2">
-        <v>35</v>
-      </c>
-      <c r="B37" s="2">
-        <v>47.599999999999994</v>
-      </c>
-      <c r="C37" s="2">
-        <v>17.14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A38" s="2">
-        <v>36</v>
-      </c>
-      <c r="B38" s="2">
-        <v>48.7</v>
-      </c>
-      <c r="C38" s="2">
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>37</v>
-      </c>
-      <c r="B39" s="2">
-        <v>49.7</v>
-      </c>
-      <c r="C39" s="2">
-        <v>17.05</v>
-      </c>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A40" s="2">
-        <v>38</v>
-      </c>
-      <c r="B40" s="2">
-        <v>50.8</v>
-      </c>
-      <c r="C40" s="2">
-        <v>17.03</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A41" s="2">
-        <v>39</v>
-      </c>
-      <c r="B41" s="2">
-        <v>52.199999999999996</v>
-      </c>
-      <c r="C41" s="2">
-        <v>17.010000000000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A42" s="2">
-        <v>40</v>
-      </c>
-      <c r="B42" s="2">
-        <v>53.3</v>
-      </c>
-      <c r="C42" s="2">
-        <v>17.03</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A43" s="2">
-        <v>41</v>
-      </c>
-      <c r="B43" s="2">
-        <v>54.699999999999996</v>
-      </c>
-      <c r="C43" s="2">
-        <v>17.05</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A44" s="2">
-        <v>42</v>
-      </c>
-      <c r="B44" s="2">
-        <v>55.699999999999996</v>
-      </c>
-      <c r="C44" s="2">
-        <v>17.11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A45" s="2">
-        <v>43</v>
-      </c>
-      <c r="B45" s="2">
-        <v>57.1</v>
-      </c>
-      <c r="C45" s="2">
-        <v>17.309999999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A46" s="2">
-        <v>44</v>
-      </c>
-      <c r="B46" s="2">
-        <v>58.199999999999996</v>
-      </c>
-      <c r="C46" s="2">
-        <v>17.52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A47" s="2">
-        <v>45</v>
-      </c>
-      <c r="B47" s="2">
-        <v>59.3</v>
-      </c>
-      <c r="C47" s="2">
-        <v>18.96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A48" s="2">
-        <v>46</v>
-      </c>
-      <c r="B48" s="2">
-        <v>60.1</v>
-      </c>
-      <c r="C48" s="2">
-        <v>19.36</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A49" s="2">
-        <v>47</v>
-      </c>
-      <c r="B49" s="2">
-        <v>60.9</v>
-      </c>
-      <c r="C49" s="2">
-        <v>19.600000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A50" s="2">
-        <v>48</v>
-      </c>
-      <c r="B50" s="2">
-        <v>61.5</v>
-      </c>
-      <c r="C50" s="2">
-        <v>19.87</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A51" s="2">
-        <v>49</v>
-      </c>
-      <c r="B51" s="2">
-        <v>61.9</v>
-      </c>
-      <c r="C51" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A52" s="2">
-        <v>50</v>
-      </c>
-      <c r="B52" s="2">
-        <v>62.4</v>
-      </c>
-      <c r="C52" s="2">
-        <v>22.7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A53" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" s="2">
-        <v>63.199999999999996</v>
-      </c>
-      <c r="C53" s="2">
-        <v>24.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E39:N39"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7107,24 +4034,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
@@ -7133,11 +4060,11 @@
       <c r="C2" s="1">
         <v>337.2</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>6</v>
+      <c r="E2" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="F2" s="16">
-        <v>335.52</v>
+        <v>355.52</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -7150,11 +4077,11 @@
       <c r="C3" s="1">
         <v>335.02</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="16">
-        <v>332.62</v>
+      <c r="E3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="10">
+        <v>332.57</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -7167,11 +4094,11 @@
       <c r="C4" s="1">
         <v>333.95</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="17">
-        <v>335.02</v>
+      <c r="E4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="8">
+        <v>332.67</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -7183,6 +4110,12 @@
       </c>
       <c r="C5" s="1">
         <v>333.78</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="8">
+        <v>331.77</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
